--- a/data/income_statement/2digits/total/46_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/46_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>459820125.38173</v>
+        <v>459822640.3101299</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>545601845.7380301</v>
+        <v>562471013.20453</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>730816489.9962701</v>
+        <v>731536996.93059</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>853054430.0459601</v>
+        <v>855604580.85482</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>936958565.6724099</v>
+        <v>940451797.99611</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1101790654.7297</v>
+        <v>1105385660.25024</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1178275015.7061</v>
+        <v>1225347966.07978</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1310673471.71745</v>
+        <v>1342193142.11741</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1755996916.55316</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2172996506.17356</v>
+        <v>2180255263.40098</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2493879767.084651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2534664891.48234</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3144347448.295</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>384123975.5149</v>
+        <v>384125624.28465</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>457100819.2849</v>
+        <v>472175137.16008</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>605734345.3860899</v>
+        <v>606448613.74941</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>697814699.82116</v>
+        <v>699143289.08832</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>778537128.8765301</v>
+        <v>781741660.97032</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>911594184.97508</v>
+        <v>914288060.89037</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>970867205.4616098</v>
+        <v>1011958750.54688</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1091450834.08136</v>
+        <v>1118763238.61376</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1446002362.25569</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1748187837.88735</v>
+        <v>1754315111.30595</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1979071721.72322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2015229895.75433</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2558096031.056</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>67185275.19535999</v>
+        <v>67186140.31101</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>77694874.21647</v>
+        <v>79469276.37548999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>113447305.6701</v>
+        <v>113452422.92756</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>142877262.83119</v>
+        <v>144089337.60141</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>144748621.96772</v>
+        <v>144958387.74065</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>173867479.1158</v>
+        <v>174622639.92102</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>188466677.21641</v>
+        <v>194006050.45292</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>198027411.55707</v>
+        <v>201869214.99034</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>285789759.33255</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>394951112.75409</v>
+        <v>396063675.90322</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>480867017.89496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>485205755.70819</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>546701031.67</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>8510874.671469999</v>
+        <v>8510875.714470001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>10806152.23666</v>
+        <v>10826599.66896</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>11634838.94008</v>
+        <v>11635960.25362</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>12362467.39361</v>
+        <v>12371954.16509</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>13672814.82816</v>
+        <v>13751749.28514</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>16328990.63882</v>
+        <v>16474959.43885</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18941133.02808</v>
+        <v>19383165.07998</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>21195226.07902</v>
+        <v>21560688.51331</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>24204794.96492</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>29857555.53212</v>
+        <v>29876476.19181</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>33941027.46647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>34229240.01982</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>39550385.569</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>20827829.84088</v>
+        <v>20827833.88088</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>23019141.68968</v>
+        <v>23630070.77624</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>29535923.87933</v>
+        <v>29636150.81167</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>33371628.52637</v>
+        <v>33542329.7815</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>38403043.25594001</v>
+        <v>38643726.37125999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>46027837.65937</v>
+        <v>46110930.40758</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>49858256.29739</v>
+        <v>50691638.0561</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>58534432.55407</v>
+        <v>60622285.64758001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>86693452.19094001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>82547021.63501</v>
+        <v>82591488.77217999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>102250906.24537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>102548760.07687</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>126764720.25</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5777385.52966</v>
+        <v>5777389.56966</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6318033.949469999</v>
+        <v>6326831.920599999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>7860582.292189999</v>
+        <v>7864573.228590001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9208982.023029998</v>
+        <v>9227157.927379997</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10176770.63748</v>
+        <v>10199935.82674</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>14732808.22922</v>
+        <v>14772214.66861</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13962733.22871</v>
+        <v>14208686.11921</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>21226770.45516</v>
+        <v>21583851.89434</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>39263364.26861</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>27121968.37344</v>
+        <v>27152118.25388</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>33840153.59816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>34099427.86333</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>49491148.035</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>13424646.75598</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>14902101.39744</v>
+        <v>15299927.99315</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>19326511.73641</v>
+        <v>19422723.0476</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>21603673.60293</v>
+        <v>21755652.81668</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>25186107.62076</v>
+        <v>25402670.84336</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>26772586.70899</v>
+        <v>26812610.59147999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>29914486.43563</v>
+        <v>30456904.54396</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>31613182.44736</v>
+        <v>33210737.70297</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>40164063.28794999</v>
+        <v>40164063.28795</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>45234400.82708</v>
+        <v>45238591.41836999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>57151051.74755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>57167990.24739002</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>64459820.609</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1625797.55524</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1799006.34277</v>
+        <v>2003310.86249</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2348829.85073</v>
+        <v>2348854.53548</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2558972.90041</v>
+        <v>2559519.03744</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3040164.9977</v>
+        <v>3041119.701159999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4522442.721160001</v>
+        <v>4526105.14749</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5981036.633049999</v>
+        <v>6026047.392929999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5694479.651550001</v>
+        <v>5827696.05027</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>7266024.63438</v>
+        <v>7266024.634380001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>10190652.43449</v>
+        <v>10200779.09993</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>11259700.89966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11281341.96615</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>12813751.606</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>438992295.54085</v>
+        <v>438994806.42925</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>522582704.04835</v>
+        <v>538840942.42829</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>701280566.11694</v>
+        <v>701900846.1189201</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>819682801.51959</v>
+        <v>822062251.07332</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>898555522.4164699</v>
+        <v>901808071.6248502</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1055762817.07033</v>
+        <v>1059274729.84266</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1128416759.40871</v>
+        <v>1174656328.02368</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1252139039.16338</v>
+        <v>1281570856.46983</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1669303464.36222</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2090449484.53855</v>
+        <v>2097663774.6288</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2391628860.83928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2432116131.40547</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3017582728.045</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>391472778.92992</v>
+        <v>391475046.6151701</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>469136251.4734401</v>
+        <v>484317050.37997</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>633175281.64774</v>
+        <v>633701594.2173802</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>745883490.17662</v>
+        <v>748072058.4812101</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>812390377.9317</v>
+        <v>815218851.70702</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>956983706.49888</v>
+        <v>960059664.38449</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1018297290.68803</v>
+        <v>1061239003.18995</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1128736351.11633</v>
+        <v>1153059393.13509</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1510705250.65674</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1895406765.11068</v>
+        <v>1902396806.91068</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2175455654.75538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2214085541.25535</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2755775852.235</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>26470429.07872</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>37521069.21947999</v>
+        <v>37726489.59686</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>40672263.70083001</v>
+        <v>40680164.86459</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>53751318.50125</v>
+        <v>53792668.26064</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>50747268.34615999</v>
+        <v>50859289.14358</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>61003512.88311001</v>
+        <v>61236845.89587</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>62910484.45842</v>
+        <v>64222212.02526999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>72017831.74033999</v>
+        <v>75013349.75924</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>110681960.41617</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>110911835.39945</v>
+        <v>111025975.92887</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>143210474.89222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>145172439.88049</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>195629788.318</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>358225292.24477</v>
+        <v>358227559.93002</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>423602362.89325</v>
+        <v>438577475.0943</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>580829691.1508</v>
+        <v>581346324.08799</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>680137602.68493</v>
+        <v>681229665.6353101</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>747977372.7605901</v>
+        <v>750607622.5559601</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>881404003.93653</v>
+        <v>884190183.8704499</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>939715068.9301399</v>
+        <v>980637792.55554</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1036429089.24873</v>
+        <v>1057101989.88106</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1366000506.59155</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1751519847.27197</v>
+        <v>1758141496.12983</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1992266550.87967</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2028498110.93028</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2493484322.863</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5965543.478809999</v>
+        <v>5965543.47881</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7053812.432569999</v>
+        <v>7054078.760670001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9804194.034439998</v>
+        <v>9805896.281630002</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>10309262.28161</v>
+        <v>11363781.89224</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>11226932.96171</v>
+        <v>11308996.84389</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>12369064.99083</v>
+        <v>12420165.69707</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>13225121.18324</v>
+        <v>13852120.45139</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>18059105.70493</v>
+        <v>18195924.90636</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>28167150.23263</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>27109311.00141</v>
+        <v>27349877.89262</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>33282221.96723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>33661946.15042</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>60106654.357</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>811514.12762</v>
+        <v>811514.1276199999</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>959006.92814</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1869132.76167</v>
+        <v>1869208.98317</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1685306.70883</v>
+        <v>1685942.69302</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2438803.86324</v>
+        <v>2442943.163589999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2207124.68841</v>
+        <v>2212468.9211</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2446616.11623</v>
+        <v>2526878.15775</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2230324.42233</v>
+        <v>2748128.58843</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5855633.416389999</v>
+        <v>5855633.416390001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>5865771.43785</v>
+        <v>5879456.95936</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>6696407.01626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6753044.29416</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>6555086.697</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>47519516.61093</v>
+        <v>47519759.81408</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>53446452.57491</v>
+        <v>54523892.04832</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>68105284.4692</v>
+        <v>68199251.90154</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>73799311.34297</v>
+        <v>73990192.59210998</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>86165144.48477</v>
+        <v>86589219.91783001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>98779110.57144998</v>
+        <v>99215065.45817</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>110119468.72068</v>
+        <v>113417324.83373</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>123402688.04705</v>
+        <v>128511463.33474</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>158598213.70548</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>195042719.42787</v>
+        <v>195266967.71812</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>216173206.0839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>218030590.15012</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>261806875.81</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>35510812.12016001</v>
+        <v>35510984.39208999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>40307651.20465</v>
+        <v>40872380.00255001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>49176722.18702</v>
+        <v>49274594.47506</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>55893276.50105</v>
+        <v>56053477.51068</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>63124976.79817999</v>
+        <v>63485132.00792</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>73305813.52430001</v>
+        <v>73640308.04202999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>79970216.07848999</v>
+        <v>82503882.51137</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>88078883.29578</v>
+        <v>91572941.76266</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>107703478.23706</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>128508632.91519</v>
+        <v>128941077.54951</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>148795343.29351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>150244769.13875</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>168689135.371</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>173133.58994</v>
@@ -1589,184 +1575,209 @@
         <v>213968.33195</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>245861.7014</v>
+        <v>246226.23669</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>209228.1321</v>
+        <v>226337.40675</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>259489.90847</v>
+        <v>271882.78037</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>334349.2084599999</v>
+        <v>334349.20846</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>433242.4104800001</v>
+        <v>434846.7401000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>715897.1578200002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>686776.0648099999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>674257.615</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>20196607.5469</v>
+        <v>20196617.72045</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>23178598.59669</v>
+        <v>23636857.57629</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>28562062.03049</v>
+        <v>28643147.26984</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>32717317.07993</v>
+        <v>32827113.23543999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>36977039.90186</v>
+        <v>37210451.08897</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>42978392.15393999</v>
+        <v>43153316.93231</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>46834603.50232001</v>
+        <v>48527362.10225</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>50788695.74137</v>
+        <v>53056959.08930001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>64299781.93522999</v>
+        <v>64299781.93523</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>76352814.78544</v>
+        <v>76443894.02013001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>87957884.51706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>88493672.29926001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>99653939.3</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>15141070.98332</v>
+        <v>15141233.0817</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>16980730.9443</v>
+        <v>17087200.7626</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>20444153.13454</v>
+        <v>20460940.18323001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>22979140.82093</v>
+        <v>23029545.67505</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>25933968.56437</v>
+        <v>26060712.587</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>30081559.66896</v>
+        <v>30240764.87303</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>32926384.44407</v>
+        <v>33750183.00237</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>37030697.64594001</v>
+        <v>38244099.89299</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>43069347.09337</v>
+        <v>43069347.09337001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>51722575.71927</v>
+        <v>52062336.78928</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>60121561.61863001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>61064320.77468</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>68360938.456</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>12008704.49077</v>
+        <v>12008775.42199</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>13138801.37026</v>
+        <v>13651512.04577</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>18928562.28218</v>
+        <v>18924657.42648</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>17906034.84192</v>
+        <v>17936715.08143</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>23040167.68659</v>
+        <v>23104087.90991</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>25473297.04715</v>
+        <v>25574757.41614</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>30149252.64219</v>
+        <v>30913442.32236</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>35323804.75127</v>
+        <v>36938521.57208</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>50894735.46842</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>66534086.51268001</v>
+        <v>66325890.16861</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>67377862.79039</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>67785821.01137</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>93117740.439</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>15831702.42464</v>
+        <v>15831693.99845</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>13574665.16353</v>
+        <v>15395015.11471</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>22486842.15559001</v>
+        <v>22489415.11788</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>20583886.48743</v>
+        <v>20602042.45097</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>28234738.84901</v>
+        <v>28343468.68476</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>33845469.72643</v>
+        <v>33959734.87447</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>49626010.32516</v>
+        <v>51640654.15675999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>56738932.54413</v>
+        <v>59038631.4259</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>69472097.10802999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>164715961.63127</v>
+        <v>165508749.65366</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>100139198.76639</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>100777582.52255</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>167795748.068</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>543709.7424599999</v>
@@ -1775,43 +1786,48 @@
         <v>624183.8457599999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>727956.31279</v>
+        <v>727962.23344</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>703512.65804</v>
+        <v>703518.4152099999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>988071.0145299999</v>
+        <v>997540.9334800002</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>917234.6733999999</v>
+        <v>932269.0613300001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>681632.79622</v>
+        <v>712994.24679</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1057100.62092</v>
+        <v>1079584.64636</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>2302471.87558</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1904101.14805</v>
+        <v>1928072.16934</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1887970.42142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1936893.38716</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1433489.303</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>503872.15936</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>338588.23018</v>
+        <v>345000.39841</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>502003.4954</v>
@@ -1820,226 +1836,256 @@
         <v>1008161.98103</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>909267.3175099998</v>
+        <v>909267.31751</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>862642.72611</v>
+        <v>862642.7261099999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1014274.04294</v>
+        <v>1043210.72768</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1303195.1306</v>
+        <v>1423311.85815</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>1189796.67212</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>2108249.16896</v>
+        <v>2140374.13875</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1372374.66524</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1375196.61466</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2034434.559</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>965530.14732</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1006124.29243</v>
+        <v>1042080.31044</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1189400.99949</v>
+        <v>1189585.83976</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1394479.30436</v>
+        <v>1395128.71992</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1476077.84686</v>
+        <v>1480500.73012</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1928148.15563</v>
+        <v>1935080.03971</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2216422.77706</v>
+        <v>2337292.32571</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2329846.00554</v>
+        <v>2520840.54744</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>3433696.64295</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5954943.738779998</v>
+        <v>5983714.13232</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>7289567.65992</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7380482.471279999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6525876.172</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>488163.18439</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>323659.5813600001</v>
+        <v>324562.0645400001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>422032.1297100001</v>
+        <v>422032.12971</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>414314.39079</v>
+        <v>415198.681</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>482752.1510499999</v>
+        <v>482763.52247</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>485316.7969499999</v>
+        <v>486092.60505</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>532294.18995</v>
+        <v>533868.09583</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>587844.02411</v>
+        <v>622071.4415100001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>653913.70998</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1010093.34778</v>
+        <v>1018168.70436</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>962531.5862500001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>972697.1005499999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1054864.026</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>445703.0394600001</v>
+        <v>445703.03946</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>451800.01403</v>
+        <v>456669.85317</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>532077.90585</v>
+        <v>532822.98231</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>536504.6181900001</v>
+        <v>538122.29523</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>541763.98991</v>
+        <v>543585.14391</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>502159.34861</v>
+        <v>503571.70365</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>646442.44744</v>
+        <v>658675.9932</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>710234.17005</v>
+        <v>747429.2457999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>829408.4111799999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1291878.71912</v>
+        <v>1298882.5973</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1284320.09863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1292251.31316</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1614408.255</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>147731.11042</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>460741.85903</v>
+        <v>460746.11573</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>495320.50437</v>
+        <v>495383.9834100001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>500037.8686200001</v>
+        <v>500438.06783</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>340535.56319</v>
+        <v>341460.76384</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>656304.43303</v>
+        <v>656549.3095399999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>302697.54489</v>
+        <v>429529.10806</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>273258.21272</v>
+        <v>300603.12806</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>417561.36543</v>
+        <v>417561.3654299999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1163245.98168</v>
+        <v>1168446.26818</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>814110.9589499999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>818259.3790399999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1323994.357</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>9157205.142139999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>7419192.52149</v>
+        <v>8021259.98168</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>13298696.60711</v>
+        <v>13299739.05593</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>9806930.114240002</v>
+        <v>9814967.57175</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>15935174.28756</v>
+        <v>15974776.91955</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>20113692.36493</v>
+        <v>20169908.9753</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>34763109.66842</v>
+        <v>36196250.66754</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>40602874.36618001</v>
+        <v>42111755.83146001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>49025621.33535001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>135112540.27692</v>
+        <v>135725004.09509</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>67811406.8238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>68210486.17275999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>136194727.815</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>160277.37474</v>
@@ -2048,310 +2094,350 @@
         <v>139467.67757</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>146535.52948</v>
+        <v>146699.68148</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>166723.99545</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>400274.27971</v>
+        <v>401014.3755499999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>644825.69816</v>
+        <v>650171.4531999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>684557.96313</v>
+        <v>693420.6701200001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>740153.7639999999</v>
+        <v>852074.6385400001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>794640.8339800001</v>
+        <v>794640.83398</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1466385.42053</v>
+        <v>1466408.46753</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2118900.42564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2119225.04193</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1443759.396</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>31231.6514</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>30307.32582000001</v>
+        <v>30307.32582</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>33311.43606</v>
+        <v>33311.43606000001</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>17514.95491</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>21680.21662</v>
+        <v>22037.01198</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>25937.53807</v>
+        <v>26544.58669</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>37259.013</v>
+        <v>37770.84613999999</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>46636.85522</v>
+        <v>47049.97182000001</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>108447.84592</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>261810.35755</v>
+        <v>264675.69288</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>184976.65473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>186108.80425</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>254042.459</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3388278.87295</v>
+        <v>3388270.44676</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2780599.81586</v>
+        <v>3950737.54159</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5139507.23533</v>
+        <v>5139874.28038</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>6035706.6018</v>
+        <v>6042267.76864</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7139142.18207</v>
+        <v>7190521.96635</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>7709207.991539999</v>
+        <v>7736904.413890001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8747319.882110002</v>
+        <v>8997641.47569</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9087789.394789999</v>
+        <v>9333910.116760001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>10716538.41554</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>14442713.4719</v>
+        <v>14515003.38791</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>16413039.47181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>16485982.23776</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>15916151.726</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>12663260.03739</v>
+        <v>12663262.19064</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>9968312.476759998</v>
+        <v>11848913.0807</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>20176069.1329</v>
+        <v>20179035.18497</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>14229216.7455</v>
+        <v>14239103.42223</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>25798314.1286</v>
+        <v>25854128.79549</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>28723114.20008</v>
+        <v>28817672.1611</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>46249839.48969001</v>
+        <v>48179663.47866</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>53259130.14889</v>
+        <v>55063656.32026999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>62789901.72310001</v>
+        <v>62789901.7231</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>160309150.45175</v>
+        <v>160987373.3112</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>87202200.27069001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>87662700.47848</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>156139910.861</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>259894.18337</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>274404.9906900001</v>
+        <v>276199.0199</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>313224.01003</v>
+        <v>313335.6573500001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>338371.97074</v>
+        <v>338563.2888400001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>400248.91677</v>
+        <v>400664.63679</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>452692.45173</v>
+        <v>453223.27981</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>484096.94361</v>
+        <v>487742.21929</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>557710.2666099999</v>
+        <v>561234.0669799999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>757882.9390700001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>815692.3290600003</v>
+        <v>816685.77957</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1091260.07139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1095546.19118</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1449735.156</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1185301.71346</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>903315.6277899999</v>
+        <v>914335.8961700001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1000844.69122</v>
+        <v>1001458.56587</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1405564.38582</v>
+        <v>1409405.1268</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1650972.72438</v>
+        <v>1658939.75361</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1589496.45122</v>
+        <v>1595863.29734</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2171336.37702</v>
+        <v>2223415.87518</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2738219.96141</v>
+        <v>2801828.64674</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>2464264.64885</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>4346364.477630001</v>
+        <v>4353413.38788</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3713908.087219999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3731773.4482</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3050829.099</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>88755.11851</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>72289.68857000001</v>
+        <v>72289.68857</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>334613.3017900001</v>
+        <v>334613.32542</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>166691.20569</v>
+        <v>166725.51194</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>214818.62461</v>
+        <v>215195.69364</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>552535.5256299999</v>
+        <v>552570.4260199999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>270678.70932</v>
+        <v>290619.76829</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>206600.9828</v>
+        <v>206826.5943</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>218912.48437</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>598179.6056300001</v>
+        <v>598205.72667</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>281230.01284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>281656.7912100001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>714998.121</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>8991818.555060001</v>
+        <v>8991818.555059999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7306815.631940001</v>
+        <v>7964327.047999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>14867665.05815</v>
+        <v>14869826.50637</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8335666.7828</v>
+        <v>8339795.52924</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>18382760.02704</v>
+        <v>18425992.37082</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>20613817.70598</v>
+        <v>20686331.84315</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>37128390.36858</v>
+        <v>38887602.60372999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>43382981.56301</v>
+        <v>44901542.22794</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>51588729.62722</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>142487333.81966</v>
+        <v>143146892.1367</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>69229273.09786999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>69639923.79611</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>134498751.355</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>135374.99295</v>
@@ -2363,34 +2449,39 @@
         <v>162012.66099</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>170692.74332</v>
+        <v>170856.89532</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>468198.9906200001</v>
+        <v>469177.70517</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>691879.7527500002</v>
+        <v>697625.63267</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>737316.97682</v>
+        <v>750293.3053</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>772077.9532400001</v>
+        <v>884190.5201600002</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>876851.5282399999</v>
+        <v>876851.5282400001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1684659.33407</v>
+        <v>1684663.77107</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1950559.56338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1951095.78123</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1608525.644</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>9427.10648</v>
@@ -2408,385 +2499,435 @@
         <v>13588.49059</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>19880.11488</v>
+        <v>19902.6294</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>30633.24168</v>
+        <v>31289.78717</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>30823.71183</v>
+        <v>30812.04702</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>52279.86867999999</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>309286.71877</v>
+        <v>311488.21439</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>134639.68747</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>135671.90968</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>170833.383</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1992688.36756</v>
+        <v>1992690.52081</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1258509.73698</v>
+        <v>2468784.62727</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3477376.61513</v>
+        <v>3477455.67338</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3802092.0552</v>
+        <v>3803619.46816</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4667726.354590001</v>
+        <v>4670570.14487</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4802812.19789</v>
+        <v>4812155.05271</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5427386.87266</v>
+        <v>5508699.9197</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5570715.709989999</v>
+        <v>5677222.21713</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>6830980.626670001</v>
+        <v>6830980.626670002</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>10067634.16693</v>
+        <v>10076024.29492</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10801329.75052</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10827032.56087</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14646238.103</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5876278.24388</v>
+        <v>5876278.243880001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4844622.73294</v>
+        <v>5105799.593479999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>9225391.188200001</v>
+        <v>9227869.359119998</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>9146056.43409</v>
+        <v>9161477.67341</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>10564168.04029</v>
+        <v>10668952.69593</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>12443761.45113</v>
+        <v>12540165.42521</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>16265823.54385</v>
+        <v>16697646.16079</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>17425586.3485</v>
+        <v>17949837.65574</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>22028204.98235</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>38570360.56886</v>
+        <v>38619126.43956</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>37006511.30997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>37243550.72248</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>36321360.869</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>5255478.61129</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>4321280.33305</v>
+        <v>4569113.400269999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>7886138.399009999</v>
+        <v>7888616.56993</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>8521027.134959999</v>
+        <v>8529750.824719999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>9675400.091569999</v>
+        <v>9741625.19733</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>11583074.33227</v>
+        <v>11659512.72652</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>14972507.18845</v>
+        <v>15327048.53189</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>16080321.41432</v>
+        <v>16569331.96551</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>20256552.36093</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>34762801.11043</v>
+        <v>34810160.97916</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>33912650.10567</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>34139659.30136</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>33317198.827</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>620799.6325899999</v>
+        <v>620799.6325900001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>523342.3998900001</v>
+        <v>536686.1932099999</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>1339252.78919</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>625029.2991300001</v>
+        <v>631726.84869</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>888767.94872</v>
+        <v>927327.4986</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>860687.11886</v>
+        <v>880652.6986900001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1293316.3554</v>
+        <v>1370597.6289</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1345264.93418</v>
+        <v>1380505.69023</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1771652.62142</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3807559.458429999</v>
+        <v>3808965.4604</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3093861.204300001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3103891.42112</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3004162.042</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>9300868.63414</v>
+        <v>9300928.985920001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>11900531.32409</v>
+        <v>12091814.4863</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>12013944.11667</v>
+        <v>12007168.00027</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>15114648.14976</v>
+        <v>15138176.43676</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>14912424.36671</v>
+        <v>14924475.10325</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>18151891.12237</v>
+        <v>18176654.7043</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>17259599.93381</v>
+        <v>17676786.83967</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>21378020.79801</v>
+        <v>22963659.02197</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>35548725.871</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>32370537.12334</v>
+        <v>32228140.07151</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>43308349.97612</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>43657152.33296001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>68452216.777</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1533242.75897</v>
+        <v>1533243.49646</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1789313.70822</v>
+        <v>1850103.72833</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2507976.25773</v>
+        <v>2508844.60463</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2463095.25774</v>
+        <v>2468143.27684</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3252896.9294</v>
+        <v>3277498.8762</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3521490.5205</v>
+        <v>3566624.554419999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4642820.663930001</v>
+        <v>4780314.23478</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5361602.875309999</v>
+        <v>5569664.560980001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5624339.551880001</v>
+        <v>5624339.55188</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>7276555.29567</v>
+        <v>7339335.44383</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7462969.727349999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7588096.667990001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>10564484.089</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>82280.89369</v>
+        <v>82280.89368999998</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>54717.65432</v>
+        <v>55058.26711</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>113450.07328</v>
+        <v>113593.82919</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>102180.52583</v>
+        <v>102470.48481</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>115230.40203</v>
+        <v>115996.9648</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>138760.47842</v>
+        <v>139142.8896</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>103199.47705</v>
+        <v>104061.28665</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>217810.25991</v>
+        <v>222375.95584</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>163259.83081</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>168338.3272</v>
+        <v>171861.55852</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>239482.4442799999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>254329.80401</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>213122.609</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1450961.86528</v>
+        <v>1450962.60277</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1734596.0539</v>
+        <v>1795045.46122</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2394526.18445</v>
+        <v>2395250.77544</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2360914.73191</v>
+        <v>2365672.79203</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3137666.52737</v>
+        <v>3161501.9114</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3382730.04208</v>
+        <v>3427481.66482</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4539621.18688</v>
+        <v>4676252.94813</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5143792.6154</v>
+        <v>5347288.605140001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5461079.72107</v>
+        <v>5461079.721070001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>7108216.96847</v>
+        <v>7167473.88531</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7223487.28307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7333766.863980001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>10351361.48</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1454820.46643</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1754348.804</v>
+        <v>1810892.92414</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>7226759.48156</v>
+        <v>7227469.735300001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2348500.56436</v>
+        <v>2353142.02304</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2652179.55823</v>
+        <v>2668038.21363</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4386028.02065</v>
+        <v>4409875.541979999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3169378.08145</v>
+        <v>3308345.42395</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>7444483.75048</v>
+        <v>7575833.68284</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>4587549.81181</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>9992391.888599999</v>
+        <v>10184494.44032</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6998509.12945</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>7103758.663639999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>10149830.582</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>121021.61807</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>114371.25141</v>
+        <v>114531.46795</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>104959.8363</v>
@@ -2795,223 +2936,251 @@
         <v>122537.59151</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>98422.24479</v>
+        <v>98520.04633999997</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>127552.11491</v>
+        <v>127602.65854</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>104324.35928</v>
+        <v>112496.76176</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>106864.99726</v>
+        <v>110524.6028</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>151535.02187</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>151599.16773</v>
+        <v>160021.05766</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>235239.04651</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>237793.6057</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>129060.93</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>136394.12423</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>191683.05499</v>
+        <v>196644.02296</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>311440.41203</v>
+        <v>311601.46276</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>193107.03582</v>
+        <v>193730.70345</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>212387.68014</v>
+        <v>212634.51524</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>237096.4266</v>
+        <v>237629.81115</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>313120.99785</v>
+        <v>323910.6343599999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>422725.79856</v>
+        <v>426544.37003</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>339711.71208</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>440193.42483</v>
+        <v>443746.94829</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>437405.5056900001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>444045.4967499999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>376177.667</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1197404.72413</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1448294.4976</v>
+        <v>1499717.43323</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>6810359.233229999</v>
+        <v>6810908.43624</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2032855.93703</v>
+        <v>2036873.72808</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2341369.6333</v>
+        <v>2356883.65205</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4021379.47914</v>
+        <v>4044643.07229</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2751932.72432</v>
+        <v>2871938.02783</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>6914892.954660001</v>
+        <v>7038764.710010001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>4096303.07786</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>9400599.296039999</v>
+        <v>9580726.434369998</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6325864.57725</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6421919.56119</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>9644591.984999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>9379290.92668</v>
+        <v>9379352.01595</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>11935496.22831</v>
+        <v>12131025.29049</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>7295160.89284</v>
+        <v>7288542.869600001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>15229242.84314</v>
+        <v>15253177.69056</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>15513141.73788</v>
+        <v>15533935.76582</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>17287353.62222</v>
+        <v>17333403.71674</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>18733042.51629</v>
+        <v>19148755.6505</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>19295139.92284</v>
+        <v>20957489.90011</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>36585515.61107</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>29654700.53041</v>
+        <v>29382981.07502</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>43772810.57402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>44141490.33731</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>68866870.28399999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1962703.86824</v>
+        <v>1962712.5053</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2360431.46927</v>
+        <v>2403397.36401</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2824681.87862</v>
+        <v>2825297.4008</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3006124.01897</v>
+        <v>3008672.35944</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3400944.94517</v>
+        <v>3408149.06301</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3843517.8574</v>
+        <v>3854898.7148</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4448573.96658</v>
+        <v>4591526.67302</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4937788.65254</v>
+        <v>5203464.465539999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>6847842.8332</v>
+        <v>6847842.833200001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>9101077.77225</v>
+        <v>9138747.030239999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>10131383.82217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>10250796.11687</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>15490810.776</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>7416587.05844</v>
+        <v>7416639.510650001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>9575064.759040002</v>
+        <v>9727627.926479999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>4470479.014219999</v>
+        <v>4463245.4688</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>12223118.82417</v>
+        <v>12244505.33112</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>12112196.79271</v>
+        <v>12125786.70281</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>13443835.76482</v>
+        <v>13478505.00194</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>14284468.54971</v>
+        <v>14557228.97748</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>14357351.2703</v>
+        <v>15754025.43457</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>29737672.77787</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>20553622.75816</v>
+        <v>20244234.04478</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>33641426.75185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>33890694.22044</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>53376059.508</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>111864</v>
+        <v>111868</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>114967</v>
+        <v>114977</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>118098</v>
+        <v>118138</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>116403</v>
+        <v>116540</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>116308</v>
+        <v>116558</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>118435</v>
+        <v>118886</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>121004</v>
+        <v>122232</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>124693</v>
+        <v>125840</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>132877</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>126246</v>
+        <v>143418</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>129820</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>152731</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>163948</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>